--- a/exceltestdata/TC007.xlsx
+++ b/exceltestdata/TC007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\eclipse-workspace\MavenProject\exceltestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732C00F5-9288-4253-9811-DE9427C77521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018EDD6F-D440-44D5-9AC2-71DDEBADB20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>AccountTitle</t>
   </si>
@@ -396,19 +396,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="47.5703125" customWidth="1"/>
-    <col min="5" max="5" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,11 +423,8 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -442,15 +438,11 @@
         <v>12</v>
       </c>
       <c r="E2" t="str">
-        <f>"Work Type """&amp;C2&amp;""" was created."</f>
-        <v>Work Type "UK Shift" was created.</v>
-      </c>
-      <c r="F2" t="str">
         <f>"Work Type """&amp;A2&amp;""" was created."</f>
         <v>Work Type "Salesforce Project" was created.</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -464,15 +456,11 @@
         <v>13</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E4" si="0">"Work Type """&amp;C3&amp;""" was created."</f>
-        <v>Work Type "US Shift" was created.</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F4" si="1">"Work Type """&amp;A3&amp;""" was created."</f>
+        <f t="shared" ref="E3:E4" si="0">"Work Type """&amp;A3&amp;""" was created."</f>
         <v>Work Type "Project Cheetah" was created.</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -487,10 +475,6 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>Work Type "Aussie Shift" was created.</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="1"/>
         <v>Work Type "Project SAP" was created.</v>
       </c>
     </row>

--- a/exceltestdata/TC007.xlsx
+++ b/exceltestdata/TC007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\eclipse-workspace\MavenProject\exceltestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018EDD6F-D440-44D5-9AC2-71DDEBADB20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84C0A9B-6AE8-40A7-9AE5-BAC0BAA1BB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>AccountTitle</t>
   </si>
@@ -78,16 +78,36 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>hari.radhakrishnan@qeagle.com</t>
+  </si>
+  <si>
+    <t>Testleaf$321</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,14 +130,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -396,84 +419,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="47.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="6" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="str">
-        <f>"Work Type """&amp;A2&amp;""" was created."</f>
+      <c r="G2" t="str">
+        <f>"Work Type """&amp;C2&amp;""" was created."</f>
         <v>Work Type "Salesforce Project" was created.</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E4" si="0">"Work Type """&amp;A3&amp;""" was created."</f>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G4" si="0">"Work Type """&amp;C3&amp;""" was created."</f>
         <v>Work Type "Project Cheetah" was created.</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="str">
+      <c r="G4" t="str">
         <f t="shared" si="0"/>
         <v>Work Type "Project SAP" was created.</v>
       </c>

--- a/exceltestdata/TC007.xlsx
+++ b/exceltestdata/TC007.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\eclipse-workspace\MavenProject\exceltestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84C0A9B-6AE8-40A7-9AE5-BAC0BAA1BB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515B4D4B-99F4-4C0F-BAA9-EDA4FE83CB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,14 +421,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="6" width="47.5703125" customWidth="1"/>
+    <col min="7" max="7" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
